--- a/data/quiz0302.xlsx
+++ b/data/quiz0302.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="53320" yWindow="3820" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1026,19 +1029,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1043,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -1328,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1346,17 +1349,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1383,22 +1386,22 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1422,23 +1425,23 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1462,23 +1465,23 @@
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1502,23 +1505,23 @@
       <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1542,23 +1545,23 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1582,23 +1585,23 @@
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1622,23 +1625,23 @@
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1662,23 +1665,23 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1702,15 +1705,15 @@
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1732,23 +1735,23 @@
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="L11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1772,23 +1775,23 @@
       <c r="G12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1812,23 +1815,23 @@
       <c r="G13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M13" s="11" t="s">
+      <c r="L13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1852,15 +1855,15 @@
       <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1882,23 +1885,23 @@
       <c r="G15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="8" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1922,23 +1925,23 @@
       <c r="G16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1962,23 +1965,23 @@
       <c r="G17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2002,23 +2005,23 @@
       <c r="G18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2042,23 +2045,23 @@
       <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2082,15 +2085,15 @@
       <c r="G20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2112,23 +2115,23 @@
       <c r="G21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2152,23 +2155,23 @@
       <c r="G22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M22" s="11" t="s">
+      <c r="L22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2192,23 +2195,23 @@
       <c r="G23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2232,23 +2235,23 @@
       <c r="G24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2272,15 +2275,15 @@
       <c r="G25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2302,23 +2305,23 @@
       <c r="G26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="8" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2342,23 +2345,23 @@
       <c r="G27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2382,23 +2385,23 @@
       <c r="G28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2422,23 +2425,23 @@
       <c r="G29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="M29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2462,23 +2465,23 @@
       <c r="G30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="11" t="s">
+      <c r="J30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2502,23 +2505,23 @@
       <c r="G31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2542,23 +2545,23 @@
       <c r="G32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2582,23 +2585,23 @@
       <c r="G33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="8" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2622,23 +2625,23 @@
       <c r="G34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2662,15 +2665,15 @@
       <c r="G35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9" t="s">
+      <c r="H35" s="5"/>
+      <c r="I35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -2692,23 +2695,23 @@
       <c r="G36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2732,23 +2735,23 @@
       <c r="G37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="9" t="s">
+      <c r="H37" s="5"/>
+      <c r="I37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L37" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="11" t="s">
+      <c r="L37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2772,23 +2775,23 @@
       <c r="G38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9" t="s">
+      <c r="H38" s="5"/>
+      <c r="I38" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N38" s="11" t="s">
+      <c r="M38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2812,23 +2815,23 @@
       <c r="G39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M39" s="11" t="s">
+      <c r="J39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2852,23 +2855,23 @@
       <c r="G40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9" t="s">
+      <c r="H40" s="5"/>
+      <c r="I40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="11" t="s">
+      <c r="J40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N40" s="11" t="s">
+      <c r="L40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2892,15 +2895,15 @@
       <c r="G41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2922,23 +2925,23 @@
       <c r="G42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2962,23 +2965,23 @@
       <c r="G43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9" t="s">
+      <c r="H43" s="5"/>
+      <c r="I43" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M43" s="11" t="s">
+      <c r="L43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3002,23 +3005,23 @@
       <c r="G44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9" t="s">
+      <c r="H44" s="5"/>
+      <c r="I44" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K44" s="11" t="s">
+      <c r="J44" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3042,23 +3045,23 @@
       <c r="G45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9" t="s">
+      <c r="H45" s="5"/>
+      <c r="I45" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="11" t="s">
+      <c r="K45" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3082,23 +3085,23 @@
       <c r="G46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3122,23 +3125,23 @@
       <c r="G47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K47" s="11" t="s">
+      <c r="J47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M47" s="11" t="s">
+      <c r="L47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3162,23 +3165,23 @@
       <c r="G48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3202,23 +3205,23 @@
       <c r="G49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="9" t="s">
+      <c r="H49" s="5"/>
+      <c r="I49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M49" s="11" t="s">
+      <c r="L49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3242,23 +3245,23 @@
       <c r="G50" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="9" t="s">
+      <c r="H50" s="5"/>
+      <c r="I50" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="M50" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N50" s="11" t="s">
+      <c r="M50" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N50" s="8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3282,23 +3285,23 @@
       <c r="G51" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="9" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3322,23 +3325,23 @@
       <c r="G52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="9" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M52" s="11" t="s">
+      <c r="L52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="8" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3362,23 +3365,23 @@
       <c r="G53" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M53" s="11" t="s">
+      <c r="L53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3402,75 +3405,75 @@
       <c r="G54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="9" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>20151525</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L55" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="M55" s="12" t="s">
+      <c r="L55" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="N55" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="L56" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M56" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="N56" s="9" t="s">
         <v>216</v>
       </c>
     </row>
